--- a/Calculations.xlsx
+++ b/Calculations.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29301"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99437516-06BC-4B6F-A3A9-7B84BE8AA0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87B8D3C9-5F73-4AF7-93C2-E6AA2FBA29DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="70">
   <si>
     <t>Molecule</t>
   </si>
@@ -45,23 +45,209 @@
     <t>Relevance</t>
   </si>
   <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>block_diag</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>~/MA_best/FINAL_CODE</t>
+  </si>
+  <si>
+    <t>alpha = 4,8,16 &amp; l = [10, 50, 100, 200]</t>
+  </si>
+  <si>
     <t>Formaldehyde</t>
   </si>
   <si>
-    <t>Red</t>
+    <t>defl1_diag</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>thresh 1.5e-4</t>
+  </si>
+  <si>
+    <t>yellow</t>
   </si>
   <si>
     <t>Yellow</t>
   </si>
   <si>
-    <t>Green</t>
+    <t>thresh 5e-5</t>
+  </si>
+  <si>
+    <t>defl2_diag</t>
+  </si>
+  <si>
+    <t>thresh 1,5e-5</t>
+  </si>
+  <si>
+    <t>alpha = 4 &amp; l = [10, 50]</t>
+  </si>
+  <si>
+    <t>defl1</t>
+  </si>
+  <si>
+    <t>thresh 1e-3</t>
+  </si>
+  <si>
+    <t>defl2</t>
+  </si>
+  <si>
+    <t>beta = 16 // thresh= 1e-3</t>
+  </si>
+  <si>
+    <t>NOT CONVERGED</t>
+  </si>
+  <si>
+    <t>block_dav</t>
+  </si>
+  <si>
+    <t>ls = [17, 19, 21, 23]</t>
+  </si>
+  <si>
+    <t>ls = [10, 15, 25]</t>
+  </si>
+  <si>
+    <t>hBN</t>
+  </si>
+  <si>
+    <t>~/MA_best/TEST_smaller_syst</t>
+  </si>
+  <si>
+    <t>ls = [5, 10, 50, 100]</t>
+  </si>
+  <si>
+    <t>NOT IDEAL as small N</t>
+  </si>
+  <si>
+    <t>He</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Uracile</t>
+  </si>
+  <si>
+    <t>~/MA_best/uracil</t>
+  </si>
+  <si>
+    <t>beta = [40, 25]</t>
+  </si>
+  <si>
+    <t>beta = [40, 25] , thresh = 1.5e-3</t>
+  </si>
+  <si>
+    <t>alpha = [10, 8], ls = 20</t>
+  </si>
+  <si>
+    <t>beta = 25, l s= [10,50,100,200]</t>
+  </si>
+  <si>
+    <t>beta = 40</t>
+  </si>
+  <si>
+    <t>He;Si;hBN</t>
+  </si>
+  <si>
+    <t>~/Master_arbeit/Davidson_jacobi</t>
+  </si>
+  <si>
+    <t>Nlow = 16</t>
+  </si>
+  <si>
+    <t>block_JD</t>
+  </si>
+  <si>
+    <t>Nlow = 16, 30, 60</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>MINRES</t>
+  </si>
+  <si>
+    <t>~/MA_best/Davidson_jacobi/block_davidson</t>
+  </si>
+  <si>
+    <t>Minres, ls = [10, 15, 25]</t>
+  </si>
+  <si>
+    <t>CG, ls = [10,15,25]</t>
+  </si>
+  <si>
+    <t>Conjugate Gradient</t>
+  </si>
+  <si>
+    <t>Minres, ls = [50, 100, 200]</t>
+  </si>
+  <si>
+    <t>defl1_JD</t>
+  </si>
+  <si>
+    <t>~/MA_best/Davidson_jacobi/defl_algo</t>
+  </si>
+  <si>
+    <t>Minres, ls = [10, 50, 100, 200]</t>
+  </si>
+  <si>
+    <t>LARGER BUFFER --&gt; better</t>
+  </si>
+  <si>
+    <t>LARGER BUFFER --&gt; worse</t>
+  </si>
+  <si>
+    <t>NOT FULLY CONVERGED</t>
+  </si>
+  <si>
+    <t>defl1_no3steps</t>
+  </si>
+  <si>
+    <t>~/MA_best/Davidson_jacobi/modified_defl</t>
+  </si>
+  <si>
+    <t>DEFLATION PROBLEM</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>defl1_mix</t>
+  </si>
+  <si>
+    <t>~/MA_best/Davidson_jacobi/mix_JD_Dav$</t>
+  </si>
+  <si>
+    <t>BEST UNTIL NOW</t>
+  </si>
+  <si>
+    <t>exact_diago</t>
+  </si>
+  <si>
+    <t>~/MA_best/Eigenvalue_calculation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,18 +256,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -96,9 +304,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -464,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -476,9 +687,12 @@
     <col min="2" max="2" width="26.5703125" customWidth="1"/>
     <col min="3" max="3" width="29.28515625" customWidth="1"/>
     <col min="4" max="4" width="37.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,58 +705,1135 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>24701</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>24704</v>
+      </c>
       <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>24705</v>
+      </c>
       <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>24709</v>
+      </c>
       <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>24716</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>24739</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>24779</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>24782</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>24803</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>24810</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>24811</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>24812</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>24813</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15">
+        <v>24816</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16">
+        <v>24819</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>24855</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>24859</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>24863</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>24883</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>24884</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22">
+        <v>24885</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>24932</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24">
+        <v>24933</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25">
+        <v>24934</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>24963</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27">
+        <v>24964</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28">
+        <v>24965</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29">
+        <v>24967</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30">
+        <v>24967</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31">
+        <v>24969</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32">
+        <v>24971</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33">
+        <v>24972</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34">
+        <v>24972</v>
+      </c>
+      <c r="D34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35">
+        <v>24973</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36">
+        <v>24982</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37">
+        <v>24983</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38">
+        <v>24984</v>
+      </c>
+      <c r="D38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39">
+        <v>24989</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40">
+        <v>24991</v>
+      </c>
+      <c r="D40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" t="s">
+        <v>57</v>
+      </c>
+      <c r="G40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41">
+        <v>24992</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>56</v>
+      </c>
+      <c r="F41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42">
+        <v>24993</v>
+      </c>
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42" t="s">
+        <v>57</v>
+      </c>
+      <c r="G42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43">
+        <v>24998</v>
+      </c>
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" t="s">
+        <v>62</v>
+      </c>
+      <c r="F43" t="s">
+        <v>57</v>
+      </c>
+      <c r="G43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44">
+        <v>24999</v>
+      </c>
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" t="s">
+        <v>62</v>
+      </c>
+      <c r="F44" t="s">
+        <v>57</v>
+      </c>
+      <c r="G44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45">
+        <v>25000</v>
+      </c>
+      <c r="D45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" t="s">
+        <v>62</v>
+      </c>
+      <c r="F45" t="s">
+        <v>57</v>
+      </c>
+      <c r="G45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46">
+        <v>25004</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" t="s">
+        <v>66</v>
+      </c>
+      <c r="F46" t="s">
+        <v>57</v>
+      </c>
+      <c r="G46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47">
+        <v>25005</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" t="s">
+        <v>66</v>
+      </c>
+      <c r="F47" t="s">
+        <v>57</v>
+      </c>
+      <c r="G47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48">
+        <v>25006</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" t="s">
+        <v>66</v>
+      </c>
+      <c r="F48" t="s">
+        <v>57</v>
+      </c>
+      <c r="G48" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49">
+        <v>25010</v>
+      </c>
+      <c r="D49" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" t="s">
+        <v>50</v>
+      </c>
+      <c r="F49" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50">
+        <v>25011</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" t="s">
+        <v>50</v>
+      </c>
+      <c r="F50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51">
+        <v>25014</v>
+      </c>
+      <c r="D51" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52">
+        <v>25015</v>
+      </c>
+      <c r="D52" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53">
+        <v>25017</v>
+      </c>
+      <c r="D53" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D93">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G53">
+    <sortCondition ref="C2:C53"/>
+  </sortState>
+  <conditionalFormatting sqref="D2:D92">
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Red">
       <formula>NOT(ISERROR(SEARCH("Red",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D200">
+  <conditionalFormatting sqref="D2:D199">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Yellow">
       <formula>NOT(ISERROR(SEARCH("Yellow",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D200">
+  <conditionalFormatting sqref="D2:D199">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Green">
       <formula>NOT(ISERROR(SEARCH("Green",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A110" xr:uid="{E1491503-29DB-4004-B30D-45C8743EE947}">
-      <formula1>"Formaldehyde,H2,Uracile"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{304C2A84-1081-47E8-A9BB-C32462ED3525}">
-      <formula1>"Formaldehyde,H2,Uracile"</formula1>
-    </dataValidation>
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{CEAE0DC7-605E-4106-A511-7477B3D0750E}">
       <formula1>"Red,Green,Yellow"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B121" xr:uid="{800562CF-DBAB-46B2-9B15-7CEC96F51AEF}">
-      <formula1>"defl1, defl2, mix_JD_Dav, block_dav, block_JD"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{111CD927-84A6-433A-94A9-7E83BF0FE240}">
+      <formula1>"defl1_diag, defl2_diag, block_diag, block_JD, defl1_mix, defl1_no3steps, exact_diago, defl1_JD"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{4EE7B92A-22E1-4B69-A205-C64DBA4396BA}">
+      <formula1>"Formaldehyde,H2,Uracile,hBN,He,Si, He;Si;hBN"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Calculations.xlsx
+++ b/Calculations.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29301"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87B8D3C9-5F73-4AF7-93C2-E6AA2FBA29DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{218B990D-98D1-4C37-951E-3FF07C8B0683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -225,9 +225,6 @@
     <t>DEFLATION PROBLEM</t>
   </si>
   <si>
-    <t>H3</t>
-  </si>
-  <si>
     <t>defl1_mix</t>
   </si>
   <si>
@@ -235,6 +232,9 @@
   </si>
   <si>
     <t>BEST UNTIL NOW</t>
+  </si>
+  <si>
+    <t>~/MA_best/Davidson_jacobi/mix_JD_Dav</t>
   </si>
   <si>
     <t>exact_diago</t>
@@ -677,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1648,10 +1648,10 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s">
         <v>64</v>
-      </c>
-      <c r="B46" t="s">
-        <v>65</v>
       </c>
       <c r="C46">
         <v>25004</v>
@@ -1660,13 +1660,13 @@
         <v>9</v>
       </c>
       <c r="E46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F46" t="s">
         <v>57</v>
       </c>
       <c r="G46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1674,7 +1674,7 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C47">
         <v>25005</v>
@@ -1683,13 +1683,13 @@
         <v>9</v>
       </c>
       <c r="E47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F47" t="s">
         <v>57</v>
       </c>
       <c r="G47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1697,7 +1697,7 @@
         <v>36</v>
       </c>
       <c r="B48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C48">
         <v>25006</v>
@@ -1706,13 +1706,13 @@
         <v>9</v>
       </c>
       <c r="E48" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F48" t="s">
         <v>57</v>
       </c>
       <c r="G48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:6">
